--- a/material.xlsx
+++ b/material.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\kohle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954CF9B0-0731-46C2-A1E1-A52017FE5BA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5045E9DA-4ECF-47EE-AC62-3F36FCDD69A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35670" yWindow="1200" windowWidth="25950" windowHeight="16065" xr2:uid="{3E913921-0454-4F7E-AC91-1558FF97E79A}"/>
+    <workbookView xWindow="38340" yWindow="7650" windowWidth="21600" windowHeight="12855" xr2:uid="{3E913921-0454-4F7E-AC91-1558FF97E79A}"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
         <v>32</v>

--- a/material.xlsx
+++ b/material.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\kohle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDB9673-2CCE-4991-839B-A694DEC54EB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9411EF2C-B404-4BC0-9B34-F938F6F4D5FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3E913921-0454-4F7E-AC91-1558FF97E79A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{3E913921-0454-4F7E-AC91-1558FF97E79A}"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="-- BK Betriebsflächen Details" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Abkürzungen!$A$4:$D$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Daten!$A$3:$J$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Abkürzungen!$A$4:$D$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Daten!$A$3:$J$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Quellen!$A$3:$I$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -54,7 +54,7 @@
     Eventuell lieber ø 1991 bis 2018? In gleicher Tabelle</t>
       </text>
     </comment>
-    <comment ref="J46" authorId="1" shapeId="0" xr:uid="{410499B1-ABD7-40E9-9502-1F5778EA296C}">
+    <comment ref="J47" authorId="1" shapeId="0" xr:uid="{410499B1-ABD7-40E9-9502-1F5778EA296C}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="279">
   <si>
     <t>https://kohlenstatistik.de/wp-content/uploads/2019/10/bk-ueberblick.xlsx</t>
   </si>
@@ -861,7 +861,49 @@
     <t>Bereich</t>
   </si>
   <si>
-    <t>$kWh * $W_CO2 / 1000</t>
+    <t>$kWh * $W_CO2 / 1000 / 1000</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>Flächenbedarf</t>
+  </si>
+  <si>
+    <t>W/m²</t>
+  </si>
+  <si>
+    <t>Auskunft PV-Projektierer ... (?)</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>Flächenertrag</t>
+  </si>
+  <si>
+    <t>Durchschnitt, min? max?</t>
+  </si>
+  <si>
+    <t>2PV_FB</t>
+  </si>
+  <si>
+    <t>$kWh * 1000 / ($PV_FE * 24 * 356)</t>
+  </si>
+  <si>
+    <t>PV FB … (min/max? …)</t>
+  </si>
+  <si>
+    <t>Ausrichtung O/W Neigung 60°</t>
+  </si>
+  <si>
+    <t>ø Sachsen O/W 60°</t>
+  </si>
+  <si>
+    <t>ø</t>
+  </si>
+  <si>
+    <t>Durchschnitt</t>
   </si>
 </sst>
 </file>
@@ -872,7 +914,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -994,12 +1036,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1415,7 +1451,7 @@
   <threadedComment ref="G16" dT="2019-12-27T10:08:39.20" personId="{F540BC82-47CD-4D12-A40A-7373740F0153}" id="{51084466-D7C5-41B8-9CA9-ADD9592DF393}">
     <text>Eventuell lieber ø 1991 bis 2018? In gleicher Tabelle</text>
   </threadedComment>
-  <threadedComment ref="J46" dT="2019-12-13T20:51:16.93" personId="{F540BC82-47CD-4D12-A40A-7373740F0153}" id="{410499B1-ABD7-40E9-9502-1F5778EA296C}">
+  <threadedComment ref="J47" dT="2019-12-13T20:51:16.93" personId="{F540BC82-47CD-4D12-A40A-7373740F0153}" id="{410499B1-ABD7-40E9-9502-1F5778EA296C}">
     <text>bisher verwendet</text>
   </threadedComment>
 </ThreadedComments>
@@ -1423,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="D25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1437,7 +1473,7 @@
     <col min="4" max="4" width="34.85546875" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="7.140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="39.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
     <col min="10" max="10" width="85.140625" customWidth="1"/>
@@ -1469,6 +1505,9 @@
       <c r="I1">
         <v>2</v>
       </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
       <c r="A2">
@@ -2444,9 +2483,6 @@
       </c>
     </row>
     <row r="41" spans="1:10" outlineLevel="1">
-      <c r="A41">
-        <v>2</v>
-      </c>
       <c r="B41" t="s">
         <v>233</v>
       </c>
@@ -2467,9 +2503,6 @@
       </c>
     </row>
     <row r="42" spans="1:10" outlineLevel="1">
-      <c r="A42">
-        <v>2</v>
-      </c>
       <c r="B42" t="s">
         <v>233</v>
       </c>
@@ -2490,67 +2523,69 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="D43" s="47"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="21"/>
-      <c r="J43" s="26"/>
-    </row>
-    <row r="44" spans="1:10" s="16" customFormat="1">
-      <c r="D44" s="50"/>
-      <c r="F44" s="34"/>
-    </row>
-    <row r="45" spans="1:10" s="27" customFormat="1">
-      <c r="B45" s="13" t="s">
+    <row r="43" spans="1:10" outlineLevel="1">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>269</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="E43" t="s">
+        <v>276</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" s="10">
+        <v>20</v>
+      </c>
+      <c r="H43" t="s">
+        <v>267</v>
+      </c>
+      <c r="J43" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="D44" s="47"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="21"/>
+      <c r="J44" s="26"/>
+    </row>
+    <row r="45" spans="1:10" s="16" customFormat="1">
+      <c r="D45" s="50"/>
+      <c r="F45" s="34"/>
+    </row>
+    <row r="46" spans="1:10" s="27" customFormat="1">
+      <c r="B46" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C46" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="46" t="s">
+      <c r="D46" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="38" t="s">
+      <c r="E46" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F45" s="39"/>
-      <c r="G45" s="40" t="s">
+      <c r="F46" s="39"/>
+      <c r="G46" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="H45" s="38" t="s">
+      <c r="H46" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38">
+      <c r="I46" s="38"/>
+      <c r="J46" s="38">
         <f>G11-G12</f>
         <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46">
-        <v>2</v>
-      </c>
-      <c r="B46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" t="s">
-        <v>123</v>
-      </c>
-      <c r="F46" s="33"/>
-      <c r="G46" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="H46" t="s">
-        <v>45</v>
-      </c>
-      <c r="J46" s="17" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2561,22 +2596,23 @@
         <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>186</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>174</v>
+        <v>146</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>54</v>
       </c>
       <c r="E47" t="s">
         <v>123</v>
       </c>
-      <c r="G47" t="s">
-        <v>177</v>
+      <c r="F47" s="33"/>
+      <c r="G47" s="36" t="s">
+        <v>173</v>
       </c>
       <c r="H47" t="s">
-        <v>176</v>
-      </c>
-      <c r="J47" t="s">
-        <v>175</v>
+        <v>45</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2587,19 +2623,22 @@
         <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E48" t="s">
         <v>123</v>
       </c>
       <c r="G48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H48" t="s">
-        <v>178</v>
+        <v>176</v>
+      </c>
+      <c r="J48" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2610,19 +2649,19 @@
         <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>251</v>
+        <v>182</v>
       </c>
       <c r="E49" t="s">
         <v>123</v>
       </c>
       <c r="G49" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="H49" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2633,16 +2672,16 @@
         <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E50" t="s">
         <v>123</v>
       </c>
       <c r="G50" t="s">
-        <v>249</v>
+        <v>188</v>
       </c>
       <c r="H50" t="s">
         <v>189</v>
@@ -2653,22 +2692,22 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>194</v>
+        <v>252</v>
       </c>
       <c r="D51" s="37" t="s">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="E51" t="s">
         <v>123</v>
       </c>
       <c r="G51" t="s">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="H51" t="s">
-        <v>27</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2679,19 +2718,19 @@
         <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>195</v>
-      </c>
-      <c r="D52" t="s">
-        <v>201</v>
+        <v>194</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>32</v>
       </c>
       <c r="E52" t="s">
         <v>123</v>
       </c>
       <c r="G52" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H52" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2702,19 +2741,19 @@
         <v>47</v>
       </c>
       <c r="C53" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E53" t="s">
         <v>123</v>
       </c>
       <c r="G53" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H53" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2725,16 +2764,16 @@
         <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="D54" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="E54" t="s">
         <v>123</v>
       </c>
       <c r="G54" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="H54" t="s">
         <v>107</v>
@@ -2748,19 +2787,19 @@
         <v>47</v>
       </c>
       <c r="C55" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="D55" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="E55" t="s">
         <v>123</v>
       </c>
       <c r="G55" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="H55" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2771,19 +2810,19 @@
         <v>47</v>
       </c>
       <c r="C56" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D56" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E56" t="s">
         <v>123</v>
       </c>
       <c r="G56" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H56" t="s">
-        <v>208</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2794,16 +2833,16 @@
         <v>47</v>
       </c>
       <c r="C57" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E57" t="s">
         <v>123</v>
       </c>
       <c r="G57" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H57" t="s">
         <v>208</v>
@@ -2817,19 +2856,19 @@
         <v>47</v>
       </c>
       <c r="C58" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D58" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E58" t="s">
         <v>123</v>
       </c>
       <c r="G58" t="s">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c r="H58" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2840,65 +2879,59 @@
         <v>47</v>
       </c>
       <c r="C59" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="D59" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="E59" t="s">
         <v>123</v>
       </c>
       <c r="G59" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="H59" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60">
-        <v>2</v>
-      </c>
       <c r="B60" t="s">
         <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D60" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E60" t="s">
         <v>123</v>
       </c>
       <c r="G60" t="s">
+        <v>240</v>
+      </c>
+      <c r="H60" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="B61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" t="s">
+        <v>245</v>
+      </c>
+      <c r="E61" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" t="s">
         <v>239</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H61" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62">
-        <v>2</v>
-      </c>
-      <c r="B62" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" t="s">
-        <v>253</v>
-      </c>
-      <c r="D62" t="s">
-        <v>219</v>
-      </c>
-      <c r="E62" t="s">
-        <v>123</v>
-      </c>
-      <c r="G62" t="s">
-        <v>255</v>
-      </c>
-      <c r="H62" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2909,41 +2942,41 @@
         <v>32</v>
       </c>
       <c r="C63" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E63" t="s">
         <v>123</v>
       </c>
       <c r="G63" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H63" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
-      <c r="A65">
+    <row r="64" spans="1:8">
+      <c r="A64">
         <v>2</v>
       </c>
-      <c r="B65" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" t="s">
-        <v>253</v>
-      </c>
-      <c r="D65" t="s">
-        <v>258</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="B64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" t="s">
+        <v>254</v>
+      </c>
+      <c r="D64" t="s">
+        <v>220</v>
+      </c>
+      <c r="E64" t="s">
         <v>123</v>
       </c>
-      <c r="G65" t="s">
-        <v>259</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="G64" t="s">
+        <v>257</v>
+      </c>
+      <c r="H64" t="s">
         <v>256</v>
       </c>
     </row>
@@ -2955,25 +2988,71 @@
         <v>33</v>
       </c>
       <c r="C66" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D66" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E66" t="s">
         <v>123</v>
       </c>
       <c r="G66" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H66" t="s">
         <v>256</v>
       </c>
     </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" t="s">
+        <v>254</v>
+      </c>
+      <c r="D67" t="s">
+        <v>260</v>
+      </c>
+      <c r="E67" t="s">
+        <v>123</v>
+      </c>
+      <c r="G67" t="s">
+        <v>261</v>
+      </c>
+      <c r="H67" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" t="s">
+        <v>272</v>
+      </c>
+      <c r="D68" t="s">
+        <v>274</v>
+      </c>
+      <c r="E68" t="s">
+        <v>123</v>
+      </c>
+      <c r="G68" t="s">
+        <v>273</v>
+      </c>
+      <c r="H68" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:J46" xr:uid="{A3968DB7-BC92-410C-AC58-25209D59AA6E}"/>
+  <autoFilter ref="A3:J47" xr:uid="{A3968DB7-BC92-410C-AC58-25209D59AA6E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2983,7 +3062,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -3435,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="14">
-        <f t="shared" ref="B21:B22" si="1">IF(D21,C21&amp;"."&amp;D21,C21)</f>
+        <f t="shared" ref="B21:B23" si="1">IF(D21,C21&amp;"."&amp;D21,C21)</f>
         <v>14</v>
       </c>
       <c r="C21" s="9">
@@ -3473,7 +3552,25 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="I23" s="5"/>
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="14">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C23" s="9">
+        <v>16</v>
+      </c>
+      <c r="F23" s="3">
+        <v>43827</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
       <c r="G24" s="3" t="s">
@@ -3505,10 +3602,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023738B7-640D-48C6-A748-1836D1EC50B3}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3552,26 +3649,19 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>2</v>
+      <c r="B5" t="s">
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D5" t="s">
-        <v>226</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="12"/>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3579,10 +3669,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>265</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>266</v>
+      </c>
+      <c r="D7" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3590,74 +3683,68 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>69</v>
+        <v>232</v>
+      </c>
+      <c r="C9" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10">
-        <v>1</v>
-      </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C10" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11">
-        <v>1</v>
-      </c>
+      <c r="A11" s="12"/>
       <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="12" customFormat="1">
-      <c r="A12">
-        <v>1</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12"/>
+        <v>123</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>149</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="12" customFormat="1">
+      <c r="A14">
+        <v>1</v>
+      </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3665,10 +3752,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3676,32 +3763,33 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="12">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>193</v>
-      </c>
-    </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="12">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>147</v>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>46</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3709,13 +3797,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" t="s">
-        <v>262</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3723,10 +3808,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3734,21 +3819,24 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22">
+      <c r="A22" s="12">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>223</v>
+        <v>142</v>
       </c>
       <c r="C22" t="s">
-        <v>225</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3763,14 +3851,14 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="12">
+      <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3778,104 +3866,104 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="12">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="12">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
         <v>152</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="12"/>
-      <c r="B26" t="s">
+    <row r="28" spans="1:5">
+      <c r="B28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="12"/>
+      <c r="B29" t="s">
         <v>87</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="12"/>
-      <c r="B27" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="12"/>
+      <c r="B30" t="s">
         <v>159</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="12"/>
-      <c r="B28" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="12"/>
+      <c r="B31" t="s">
         <v>35</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C31" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="12">
-        <v>1</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="12">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="12">
-        <v>1</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="12"/>
       <c r="B32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" t="s">
-        <v>185</v>
+        <v>183</v>
+      </c>
+      <c r="C32" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="12">
         <v>1</v>
       </c>
-      <c r="B33" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>50</v>
+      <c r="B33" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="12">
+      <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>51</v>
+        <v>243</v>
+      </c>
+      <c r="C34" t="s">
+        <v>244</v>
+      </c>
+      <c r="E34" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3883,34 +3971,32 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>54</v>
+        <v>150</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="12"/>
+      <c r="A36" s="12">
+        <v>1</v>
+      </c>
       <c r="B36" s="12" t="s">
-        <v>191</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E36" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="12"/>
+      <c r="A37" s="12">
+        <v>1</v>
+      </c>
       <c r="B37" t="s">
-        <v>171</v>
-      </c>
-      <c r="C37" t="s">
-        <v>172</v>
+        <v>144</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3918,50 +4004,87 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="12">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="12"/>
+      <c r="B40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="12">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
         <v>33</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C41" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="12"/>
-      <c r="B39" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" s="12"/>
+      <c r="B42" t="s">
         <v>43</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C42" t="s">
         <v>28</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D42" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>231</v>
-      </c>
-      <c r="C40" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>243</v>
-      </c>
-      <c r="C41" t="s">
-        <v>244</v>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>277</v>
+      </c>
+      <c r="C44" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:D31" xr:uid="{F54C2178-E35E-44C9-BF67-EA1FAD83BDC0}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D39">
-      <sortCondition ref="B4:B31"/>
+  <autoFilter ref="A4:D33" xr:uid="{F54C2178-E35E-44C9-BF67-EA1FAD83BDC0}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D43">
+      <sortCondition ref="C4:C33"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4046,13 +4169,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784A3184-219E-4562-AB0F-9C60B93AF40D}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="19"/>
     <col min="2" max="2" width="24" style="19" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="19"/>
+    <col min="3" max="3" width="11.42578125" style="19"/>
+    <col min="4" max="4" width="24" style="19" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="19" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
